--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p15/p15_analysis.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p15/p15_analysis.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,22 +548,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -580,19 +580,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -644,10 +644,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -656,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
@@ -708,25 +708,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -740,22 +740,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -772,31 +772,31 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -804,13 +804,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -836,25 +836,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -932,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -964,16 +964,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>-15</v>
@@ -1028,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>-15</v>
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>-1</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1060,25 +1060,25 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1124,16 +1124,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>-15</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1156,10 +1156,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
         <v>0.1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1188,28 +1188,28 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -1252,25 +1252,25 @@
         <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1284,25 +1284,25 @@
         <v>15</v>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D26" t="n">
         <v>0.1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
         <v>9</v>
@@ -1348,25 +1348,25 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1380,25 +1380,25 @@
         <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1412,13 +1412,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C30" t="n">
         <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1444,25 +1444,25 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1476,13 +1476,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C32" t="n">
         <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,25 +1508,25 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C33" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>0.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C34" t="n">
         <v>-15</v>
@@ -1572,31 +1572,31 @@
         <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1604,22 +1604,22 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1636,25 +1636,25 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1668,22 +1668,22 @@
         <v>15</v>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>15</v>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1715,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1732,10 +1732,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1744,19 +1744,19 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1764,25 +1764,25 @@
         <v>15</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -1796,25 +1796,25 @@
         <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C42" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1828,25 +1828,25 @@
         <v>15</v>
       </c>
       <c r="B43" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1860,25 +1860,25 @@
         <v>15</v>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0.1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C45" t="n">
         <v>-15</v>
@@ -1924,19 +1924,19 @@
         <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0.1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1956,13 +1956,13 @@
         <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C47" t="n">
         <v>-15</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1988,19 +1988,19 @@
         <v>15</v>
       </c>
       <c r="B48" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2020,31 +2020,31 @@
         <v>15</v>
       </c>
       <c r="B49" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C49" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2052,25 +2052,25 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
         <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -2084,25 +2084,25 @@
         <v>15</v>
       </c>
       <c r="B51" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2116,19 +2116,19 @@
         <v>15</v>
       </c>
       <c r="B52" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2148,10 +2148,10 @@
         <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2180,13 +2180,13 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C55" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2244,13 +2244,13 @@
         <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2276,22 +2276,22 @@
         <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C57" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2308,10 +2308,10 @@
         <v>15</v>
       </c>
       <c r="B58" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>2</v>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2340,10 +2340,10 @@
         <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0.1</v>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2372,25 +2372,25 @@
         <v>15</v>
       </c>
       <c r="B60" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D60" t="n">
         <v>0.1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -2404,25 +2404,25 @@
         <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -2436,25 +2436,25 @@
         <v>15</v>
       </c>
       <c r="B62" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
         <v>-15</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>-1</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -2468,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C63" t="n">
         <v>9</v>
@@ -2500,25 +2500,25 @@
         <v>15</v>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -2532,16 +2532,16 @@
         <v>15</v>
       </c>
       <c r="B65" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C65" t="n">
         <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -2564,19 +2564,19 @@
         <v>15</v>
       </c>
       <c r="B66" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2596,22 +2596,22 @@
         <v>15</v>
       </c>
       <c r="B67" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2628,16 +2628,16 @@
         <v>15</v>
       </c>
       <c r="B68" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -2660,25 +2660,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         <v>15</v>
       </c>
       <c r="B70" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C70" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2724,22 +2724,22 @@
         <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>15</v>
       </c>
       <c r="B72" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C72" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0.1</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2788,19 +2788,19 @@
         <v>15</v>
       </c>
       <c r="B73" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2820,13 +2820,13 @@
         <v>15</v>
       </c>
       <c r="B74" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C74" t="n">
         <v>-15</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -2852,13 +2852,13 @@
         <v>15</v>
       </c>
       <c r="B75" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C75" t="n">
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2884,25 +2884,25 @@
         <v>15</v>
       </c>
       <c r="B76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C76" t="n">
         <v>-15</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>-1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -2916,25 +2916,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -2948,25 +2948,25 @@
         <v>15</v>
       </c>
       <c r="B78" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -2980,10 +2980,10 @@
         <v>15</v>
       </c>
       <c r="B79" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C80" t="n">
         <v>9</v>
@@ -3044,25 +3044,25 @@
         <v>15</v>
       </c>
       <c r="B81" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C81" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0.1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -3108,19 +3108,19 @@
         <v>15</v>
       </c>
       <c r="B83" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3140,25 +3140,25 @@
         <v>15</v>
       </c>
       <c r="B84" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C84" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C85" t="n">
         <v>9</v>
@@ -3204,22 +3204,22 @@
         <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C86" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3236,25 +3236,25 @@
         <v>15</v>
       </c>
       <c r="B87" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3268,16 +3268,16 @@
         <v>15</v>
       </c>
       <c r="B88" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3300,10 +3300,10 @@
         <v>15</v>
       </c>
       <c r="B89" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C89" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3332,10 +3332,10 @@
         <v>15</v>
       </c>
       <c r="B90" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3364,10 +3364,10 @@
         <v>15</v>
       </c>
       <c r="B91" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>2</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3396,22 +3396,22 @@
         <v>15</v>
       </c>
       <c r="B92" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3428,22 +3428,22 @@
         <v>15</v>
       </c>
       <c r="B93" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3492,19 +3492,19 @@
         <v>15</v>
       </c>
       <c r="B95" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3524,16 +3524,16 @@
         <v>15</v>
       </c>
       <c r="B96" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3556,10 +3556,10 @@
         <v>15</v>
       </c>
       <c r="B97" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C97" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3588,13 +3588,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C99" t="n">
         <v>-15</v>
@@ -3629,10 +3629,10 @@
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3652,25 +3652,25 @@
         <v>15</v>
       </c>
       <c r="B100" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C101" t="n">
         <v>-15</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -3716,25 +3716,25 @@
         <v>15</v>
       </c>
       <c r="B102" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3748,19 +3748,19 @@
         <v>15</v>
       </c>
       <c r="B103" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3780,25 +3780,25 @@
         <v>15</v>
       </c>
       <c r="B104" t="n">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C104" t="n">
         <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3812,22 +3812,22 @@
         <v>15</v>
       </c>
       <c r="B105" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C105" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -3844,25 +3844,25 @@
         <v>15</v>
       </c>
       <c r="B106" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3876,22 +3876,22 @@
         <v>15</v>
       </c>
       <c r="B107" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C107" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3908,25 +3908,25 @@
         <v>15</v>
       </c>
       <c r="B108" t="n">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
         <v>0.1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -3940,22 +3940,22 @@
         <v>15</v>
       </c>
       <c r="B109" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -3972,22 +3972,22 @@
         <v>15</v>
       </c>
       <c r="B110" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4004,13 +4004,13 @@
         <v>15</v>
       </c>
       <c r="B111" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C111" t="n">
         <v>-15</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>-1</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4036,19 +4036,19 @@
         <v>15</v>
       </c>
       <c r="B112" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4068,10 +4068,10 @@
         <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C113" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
         <v>0.1</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4100,22 +4100,22 @@
         <v>15</v>
       </c>
       <c r="B114" t="n">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C114" t="n">
         <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4132,25 +4132,25 @@
         <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -4164,19 +4164,19 @@
         <v>15</v>
       </c>
       <c r="B116" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4196,10 +4196,10 @@
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C117" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4228,31 +4228,31 @@
         <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4260,7 +4260,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C119" t="n">
         <v>9</v>
@@ -4269,7 +4269,7 @@
         <v>0.1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -4292,25 +4292,25 @@
         <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4324,25 +4324,25 @@
         <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C121" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -4356,10 +4356,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C122" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D122" t="n">
         <v>0.1</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4420,22 +4420,22 @@
         <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C125" t="n">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         <v>0.1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -4484,25 +4484,25 @@
         <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C126" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -4516,25 +4516,25 @@
         <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C127" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -4548,28 +4548,28 @@
         <v>15</v>
       </c>
       <c r="B128" t="n">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C128" t="n">
         <v>-15</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -4580,22 +4580,22 @@
         <v>15</v>
       </c>
       <c r="B129" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4612,7 +4612,7 @@
         <v>15</v>
       </c>
       <c r="B130" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C130" t="n">
         <v>-15</v>
@@ -4644,25 +4644,25 @@
         <v>15</v>
       </c>
       <c r="B131" t="n">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -4676,10 +4676,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>0.1</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -4708,25 +4708,25 @@
         <v>15</v>
       </c>
       <c r="B133" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -4740,13 +4740,13 @@
         <v>15</v>
       </c>
       <c r="B134" t="n">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C134" t="n">
         <v>-15</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="n">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -4804,25 +4804,25 @@
         <v>15</v>
       </c>
       <c r="B136" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -4836,25 +4836,25 @@
         <v>15</v>
       </c>
       <c r="B137" t="n">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C137" t="n">
         <v>9</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -4868,13 +4868,13 @@
         <v>15</v>
       </c>
       <c r="B138" t="n">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -4886,13 +4886,13 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4900,19 +4900,19 @@
         <v>15</v>
       </c>
       <c r="B139" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4932,22 +4932,22 @@
         <v>15</v>
       </c>
       <c r="B140" t="n">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C140" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -4964,25 +4964,25 @@
         <v>15</v>
       </c>
       <c r="B141" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C141" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -4996,31 +4996,31 @@
         <v>15</v>
       </c>
       <c r="B142" t="n">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C142" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5028,25 +5028,25 @@
         <v>15</v>
       </c>
       <c r="B143" t="n">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C143" t="n">
         <v>-15</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>-1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -5060,13 +5060,13 @@
         <v>15</v>
       </c>
       <c r="B144" t="n">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C144" t="n">
         <v>-15</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -5075,16 +5075,16 @@
         <v>-1</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5092,25 +5092,25 @@
         <v>15</v>
       </c>
       <c r="B145" t="n">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C145" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -5124,19 +5124,19 @@
         <v>15</v>
       </c>
       <c r="B146" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C146" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5156,22 +5156,22 @@
         <v>15</v>
       </c>
       <c r="B147" t="n">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C147" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -5188,22 +5188,22 @@
         <v>15</v>
       </c>
       <c r="B148" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C148" t="n">
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -5220,25 +5220,25 @@
         <v>15</v>
       </c>
       <c r="B149" t="n">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -5252,10 +5252,10 @@
         <v>15</v>
       </c>
       <c r="B150" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C150" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5284,13 +5284,13 @@
         <v>15</v>
       </c>
       <c r="B151" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C151" t="n">
         <v>9</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>15</v>
       </c>
       <c r="B152" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D152" t="n">
         <v>0.1</v>
@@ -5328,19 +5328,19 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5348,25 +5348,25 @@
         <v>15</v>
       </c>
       <c r="B153" t="n">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C153" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -5380,894 +5380,30 @@
         <v>15</v>
       </c>
       <c r="B154" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C154" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>15</v>
-      </c>
-      <c r="B155" t="n">
-        <v>154</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>15</v>
-      </c>
-      <c r="B156" t="n">
-        <v>155</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" t="n">
-        <v>156</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>15</v>
-      </c>
-      <c r="B158" t="n">
-        <v>157</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>15</v>
-      </c>
-      <c r="B159" t="n">
-        <v>158</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>15</v>
-      </c>
-      <c r="B160" t="n">
-        <v>159</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>15</v>
-      </c>
-      <c r="B161" t="n">
-        <v>160</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>2</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>15</v>
-      </c>
-      <c r="B162" t="n">
-        <v>161</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>15</v>
-      </c>
-      <c r="B163" t="n">
-        <v>162</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>2</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>15</v>
-      </c>
-      <c r="B164" t="n">
-        <v>163</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>15</v>
-      </c>
-      <c r="B165" t="n">
-        <v>164</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>15</v>
-      </c>
-      <c r="B166" t="n">
-        <v>165</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>2</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>15</v>
-      </c>
-      <c r="B167" t="n">
-        <v>166</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D167" t="n">
-        <v>2</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>15</v>
-      </c>
-      <c r="B168" t="n">
-        <v>167</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>15</v>
-      </c>
-      <c r="B169" t="n">
-        <v>168</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>15</v>
-      </c>
-      <c r="B170" t="n">
-        <v>169</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D170" t="n">
-        <v>2</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>15</v>
-      </c>
-      <c r="B171" t="n">
-        <v>170</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>15</v>
-      </c>
-      <c r="B172" t="n">
-        <v>171</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9</v>
-      </c>
-      <c r="D172" t="n">
-        <v>2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>15</v>
-      </c>
-      <c r="B173" t="n">
-        <v>172</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9</v>
-      </c>
-      <c r="D173" t="n">
-        <v>2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>15</v>
-      </c>
-      <c r="B174" t="n">
-        <v>173</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D174" t="n">
-        <v>2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>15</v>
-      </c>
-      <c r="B175" t="n">
-        <v>174</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
-      <c r="F175" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>15</v>
-      </c>
-      <c r="B176" t="n">
-        <v>175</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>15</v>
-      </c>
-      <c r="B177" t="n">
-        <v>176</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>15</v>
-      </c>
-      <c r="B178" t="n">
-        <v>177</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>15</v>
-      </c>
-      <c r="B179" t="n">
-        <v>178</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-15</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1</v>
-      </c>
-      <c r="F179" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>15</v>
-      </c>
-      <c r="B180" t="n">
-        <v>179</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>2</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>15</v>
-      </c>
-      <c r="B181" t="n">
-        <v>180</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,10 +5515,10 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1632993161855452</v>
       </c>
     </row>
     <row r="6">
@@ -6532,10 +5668,10 @@
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">
